--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1452,28 +1452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.25528107461233</v>
+        <v>111.4987336883544</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.8088161793578</v>
+        <v>152.5574864093075</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.32881688086941</v>
+        <v>137.9976140222219</v>
       </c>
       <c r="AD2" t="n">
-        <v>80255.28107461233</v>
+        <v>111498.7336883544</v>
       </c>
       <c r="AE2" t="n">
-        <v>109808.8161793578</v>
+        <v>152557.4864093075</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.669098388548457e-06</v>
+        <v>6.202792872564605e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>99328.81688086942</v>
+        <v>137997.6140222219</v>
       </c>
     </row>
     <row r="3">
@@ -1558,28 +1558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.36525860205288</v>
+        <v>110.4381190152027</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.5910481673823</v>
+        <v>151.1063066224851</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.2272709388083</v>
+        <v>136.6849327975097</v>
       </c>
       <c r="AD3" t="n">
-        <v>79365.25860205287</v>
+        <v>110438.1190152027</v>
       </c>
       <c r="AE3" t="n">
-        <v>108591.0481673823</v>
+        <v>151106.3066224851</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.761227322206663e-06</v>
+        <v>6.3585414060015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>98227.2709388083</v>
+        <v>136684.9327975097</v>
       </c>
     </row>
   </sheetData>
@@ -1855,28 +1855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.10809204872895</v>
+        <v>106.2092033797167</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.1344491930799</v>
+        <v>145.3201176834255</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.196003515736</v>
+        <v>131.4509696098248</v>
       </c>
       <c r="AD2" t="n">
-        <v>76108.09204872895</v>
+        <v>106209.2033797167</v>
       </c>
       <c r="AE2" t="n">
-        <v>104134.4491930799</v>
+        <v>145320.1176834255</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.934255798337786e-06</v>
+        <v>6.813308812699601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.329861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>94196.003515736</v>
+        <v>131450.9696098248</v>
       </c>
     </row>
   </sheetData>
@@ -2152,28 +2152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.10968079834916</v>
+        <v>96.45577763649489</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.55891417220107</v>
+        <v>131.9750502907806</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.53434411789898</v>
+        <v>119.3795367192101</v>
       </c>
       <c r="AD2" t="n">
-        <v>69109.68079834916</v>
+        <v>96455.77763649488</v>
       </c>
       <c r="AE2" t="n">
-        <v>94558.91417220107</v>
+        <v>131975.0502907806</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.105393653074093e-06</v>
+        <v>7.768288230125013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.694444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>85534.34411789899</v>
+        <v>119379.5367192101</v>
       </c>
     </row>
   </sheetData>
@@ -2449,28 +2449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.43012895229184</v>
+        <v>99.74942908861662</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.73385370737142</v>
+        <v>136.4815695132183</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.40627187988932</v>
+        <v>123.4559600719991</v>
       </c>
       <c r="AD2" t="n">
-        <v>71430.12895229184</v>
+        <v>99749.42908861663</v>
       </c>
       <c r="AE2" t="n">
-        <v>97733.85370737143</v>
+        <v>136481.5695132183</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.12038469995134e-06</v>
+        <v>7.50644607967031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.434027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>88406.27187988932</v>
+        <v>123455.9600719991</v>
       </c>
     </row>
   </sheetData>
@@ -2746,28 +2746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.76987768975441</v>
+        <v>103.0925762449355</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.0399335030525</v>
+        <v>141.0558109417346</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.01506967402025</v>
+        <v>127.5936423185675</v>
       </c>
       <c r="AD2" t="n">
-        <v>76769.87768975442</v>
+        <v>103092.5762449355</v>
       </c>
       <c r="AE2" t="n">
-        <v>105039.9335030525</v>
+        <v>141055.8109417346</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.947218904930999e-06</v>
+        <v>7.735277257887594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.154513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>95015.06967402025</v>
+        <v>127593.6423185675</v>
       </c>
     </row>
   </sheetData>
@@ -3043,28 +3043,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.10367425653946</v>
+        <v>107.4602015259951</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.4966486917927</v>
+        <v>147.0317885373058</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.42819660615113</v>
+        <v>132.9992809997565</v>
       </c>
       <c r="AD2" t="n">
-        <v>77103.67425653947</v>
+        <v>107460.2015259951</v>
       </c>
       <c r="AE2" t="n">
-        <v>105496.6486917927</v>
+        <v>147031.7885373058</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.869481304539385e-06</v>
+        <v>6.657369866417337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.364583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>95428.19660615113</v>
+        <v>132999.2809997565</v>
       </c>
     </row>
   </sheetData>
@@ -3340,28 +3340,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.08934186008773</v>
+        <v>102.0271091634229</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.1087943577811</v>
+        <v>139.5979918757197</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.17279714191132</v>
+        <v>126.2749554581506</v>
       </c>
       <c r="AD2" t="n">
-        <v>76089.34186008773</v>
+        <v>102027.1091634229</v>
       </c>
       <c r="AE2" t="n">
-        <v>104108.7943577811</v>
+        <v>139597.9918757197</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.79657713030579e-06</v>
+        <v>7.610847739853028e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.545138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>94172.79714191132</v>
+        <v>126274.9554581506</v>
       </c>
     </row>
   </sheetData>
@@ -3637,28 +3637,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.75199047872776</v>
+        <v>103.02415351108</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.9107270811406</v>
+        <v>140.9621919386757</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.27994891763679</v>
+        <v>127.5089581817654</v>
       </c>
       <c r="AD2" t="n">
-        <v>73751.99047872776</v>
+        <v>103024.15351108</v>
       </c>
       <c r="AE2" t="n">
-        <v>100910.7270811406</v>
+        <v>140962.1919386757</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.048178624227654e-06</v>
+        <v>7.169625151110868e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.338541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>91279.94891763679</v>
+        <v>127508.9581817654</v>
       </c>
     </row>
   </sheetData>
@@ -3934,28 +3934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.45407526144884</v>
+        <v>105.2900581423332</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.2395945715394</v>
+        <v>144.0625026198119</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.38655256333867</v>
+        <v>130.3133795628083</v>
       </c>
       <c r="AD2" t="n">
-        <v>75454.07526144883</v>
+        <v>105290.0581423331</v>
       </c>
       <c r="AE2" t="n">
-        <v>103239.5945715394</v>
+        <v>144062.5026198119</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.960680219092217e-06</v>
+        <v>6.907080458651379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.338541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>93386.55256333867</v>
+        <v>130313.3795628083</v>
       </c>
     </row>
   </sheetData>
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.76685630922377</v>
+        <v>109.6085400801792</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.7722877506879</v>
+        <v>149.9712401251469</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.48665186714555</v>
+        <v>135.6581954536013</v>
       </c>
       <c r="AD2" t="n">
-        <v>78766.85630922377</v>
+        <v>109608.5400801792</v>
       </c>
       <c r="AE2" t="n">
-        <v>107772.2877506879</v>
+        <v>149971.2401251469</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.777083735179819e-06</v>
+        <v>6.420792018373437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.407986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>97486.65186714556</v>
+        <v>135658.1954536012</v>
       </c>
     </row>
     <row r="3">
@@ -4337,28 +4337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.55313102194756</v>
+        <v>109.394814792903</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.4798593837425</v>
+        <v>149.6788117582015</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.22213245311556</v>
+        <v>135.3936760395712</v>
       </c>
       <c r="AD3" t="n">
-        <v>78553.13102194757</v>
+        <v>109394.814792903</v>
       </c>
       <c r="AE3" t="n">
-        <v>107479.8593837425</v>
+        <v>149678.8117582015</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.807129120484112e-06</v>
+        <v>6.471867182091397e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.364583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>97222.13245311557</v>
+        <v>135393.6760395712</v>
       </c>
     </row>
   </sheetData>
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.46531525304293</v>
+        <v>101.1191621359123</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.15024127325479</v>
+        <v>138.3556986968845</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.68748140439767</v>
+        <v>125.1512249967337</v>
       </c>
       <c r="AD2" t="n">
-        <v>72465.31525304294</v>
+        <v>101119.1621359123</v>
       </c>
       <c r="AE2" t="n">
-        <v>99150.2412732548</v>
+        <v>138355.6986968845</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.068638251622932e-06</v>
+        <v>7.336717569997932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.434027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>89687.48140439767</v>
+        <v>125151.2249967337</v>
       </c>
     </row>
   </sheetData>
@@ -4931,28 +4931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.83456260781941</v>
+        <v>97.58972410624774</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.55072944344622</v>
+        <v>133.5265658768833</v>
       </c>
       <c r="AC2" t="n">
-        <v>86.43150193167827</v>
+        <v>120.7829778353414</v>
       </c>
       <c r="AD2" t="n">
-        <v>69834.5626078194</v>
+        <v>97589.72410624774</v>
       </c>
       <c r="AE2" t="n">
-        <v>95550.72944344621</v>
+        <v>133526.5658768833</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.129622284783676e-06</v>
+        <v>7.70455517963278e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.572916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>86431.50193167827</v>
+        <v>120782.9778353414</v>
       </c>
     </row>
   </sheetData>
@@ -7665,28 +7665,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.28456331976784</v>
+        <v>95.18503125924556</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.42995203639262</v>
+        <v>130.2363590360554</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.51312854382343</v>
+        <v>117.8067837175668</v>
       </c>
       <c r="AD2" t="n">
-        <v>68284.56331976784</v>
+        <v>95185.03125924556</v>
       </c>
       <c r="AE2" t="n">
-        <v>93429.95203639263</v>
+        <v>130236.3590360554</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.066413876794237e-06</v>
+        <v>7.8198646823725e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.850694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>84513.12854382343</v>
+        <v>117806.7837175668</v>
       </c>
     </row>
   </sheetData>
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.67034799616273</v>
+        <v>118.1080227959806</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.8497055204258</v>
+        <v>161.6006073476138</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.7931722216692</v>
+        <v>146.1776721902791</v>
       </c>
       <c r="AD2" t="n">
-        <v>84670.34799616273</v>
+        <v>118108.0227959806</v>
       </c>
       <c r="AE2" t="n">
-        <v>115849.7055204258</v>
+        <v>161600.6073476138</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.477342004833071e-06</v>
+        <v>7.17236325931485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.352430555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>104793.1722216692</v>
+        <v>146177.6721902791</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.64330472272654</v>
+        <v>104.2033904326961</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.1302625517884</v>
+        <v>142.5756759190913</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.3830936345951</v>
+        <v>128.9684535156296</v>
       </c>
       <c r="AD2" t="n">
-        <v>74643.30472272653</v>
+        <v>104203.3904326961</v>
       </c>
       <c r="AE2" t="n">
-        <v>102130.2625517884</v>
+        <v>142575.6759190913</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.99896362332866e-06</v>
+        <v>7.026021335968299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>92383.0936345951</v>
+        <v>128968.4535156296</v>
       </c>
     </row>
   </sheetData>
@@ -8556,28 +8556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.55601554398966</v>
+        <v>108.1591436606437</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.115561997171</v>
+        <v>147.9881120010822</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.98804169431456</v>
+        <v>133.8643342943589</v>
       </c>
       <c r="AD2" t="n">
-        <v>77556.01554398966</v>
+        <v>108159.1436606437</v>
       </c>
       <c r="AE2" t="n">
-        <v>106115.561997171</v>
+        <v>147988.1120010822</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.858747837989635e-06</v>
+        <v>6.598028774859496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.338541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>95988.04169431455</v>
+        <v>133864.3342943589</v>
       </c>
     </row>
   </sheetData>
@@ -8853,28 +8853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.3617806151663</v>
+        <v>134.9135839907059</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.0559041206572</v>
+        <v>184.5947175832594</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.6891652011154</v>
+        <v>166.9772568174783</v>
       </c>
       <c r="AD2" t="n">
-        <v>102361.7806151663</v>
+        <v>134913.5839907059</v>
       </c>
       <c r="AE2" t="n">
-        <v>140055.9041206572</v>
+        <v>184594.7175832594</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.895097760017917e-06</v>
+        <v>6.205527954131537e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>126689.1652011154</v>
+        <v>166977.2568174783</v>
       </c>
     </row>
   </sheetData>
@@ -9150,28 +9150,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.43046512078146</v>
+        <v>98.39460484542707</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.36606955104392</v>
+        <v>134.62783921306</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.16902712374416</v>
+        <v>121.7791471899606</v>
       </c>
       <c r="AD2" t="n">
-        <v>70430.46512078146</v>
+        <v>98394.60484542706</v>
       </c>
       <c r="AE2" t="n">
-        <v>96366.06955104393</v>
+        <v>134627.83921306</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.157559243144494e-06</v>
+        <v>7.66002241619189e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>87169.02712374416</v>
+        <v>121779.1471899606</v>
       </c>
     </row>
   </sheetData>
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.57545413720175</v>
+        <v>101.5461546593163</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.30093815354543</v>
+        <v>138.9399287049861</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.82379598593781</v>
+        <v>125.6796969128343</v>
       </c>
       <c r="AD2" t="n">
-        <v>72575.45413720174</v>
+        <v>101546.1546593163</v>
       </c>
       <c r="AE2" t="n">
-        <v>99300.93815354543</v>
+        <v>138939.9287049861</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.124818023832753e-06</v>
+        <v>7.368686377450152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.295138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>89823.7959859378</v>
+        <v>125679.6969128343</v>
       </c>
     </row>
   </sheetData>
